--- a/server/sample/sample-dish.xlsx
+++ b/server/sample/sample-dish.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27182C7-9E0D-4603-984D-91DFC7C7B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63DFE9A-E41C-4BE4-B1E9-1B76B1F0296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{162D0D06-7342-4C4E-9EAC-8E9CE80360C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{67E81BDC-AA49-4174-8CBD-D1AE4D80EC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -33,65 +42,41 @@
     <t>price</t>
   </si>
   <si>
-    <t>discountPrice</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>category</t>
+    <t>ffdf</t>
+  </si>
+  <si>
+    <t>dsada</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>Arijitdsadsa</t>
-  </si>
-  <si>
-    <t>dsadas</t>
+    <t>das</t>
   </si>
   <si>
     <t>dasda</t>
   </si>
   <si>
-    <t>asdasdsa</t>
-  </si>
-  <si>
-    <t>dasdsadasd</t>
-  </si>
-  <si>
-    <t>dsadadas</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>dessert</t>
+    <t>dasdas</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFEEFF00"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,14 +99,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,21 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A853FE4-E9CD-4CA2-88E9-4342FF3D5072}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C8ACF-95E8-4E6C-87B8-0767A819713D}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,92 +438,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2">
+        <v>3123</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="D2" s="1">
+        <v>45622</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>321</v>
-      </c>
-      <c r="C2">
-        <v>321</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3213</v>
-      </c>
-      <c r="C3">
-        <v>321</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
         <v>45622</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3213</v>
-      </c>
-      <c r="C4">
-        <v>321</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
         <v>45622</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>321321</v>
-      </c>
-      <c r="C5">
-        <v>321</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
+        <v>312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>45622</v>
       </c>
     </row>
